--- a/Data/EC/NIT-9004508634.xlsx
+++ b/Data/EC/NIT-9004508634.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9280A64-38EC-4B0A-A3DA-0B7D92B03FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2213E2-40F2-4A2C-A45F-F325415892CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1FBAFA9B-D797-44E6-9829-4483811AEA85}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2AC048E-1047-4075-96E0-EBADA4DFF565}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>KAREN PATRICIA JIMENEZ CARRASCAL</t>
   </si>
   <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
     <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1746EC8A-82A5-1FB7-7E0C-19C0DB8DAA3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E9E6A6-8476-44D8-64EB-B64E6B9AA306}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22703011-EF88-4EE8-8348-0EA520FC3F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B417ADA-F036-443B-8662-798F0A6772AE}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>28526</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="24">
-        <v>28526</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="24">
         <v>737717</v>

--- a/Data/EC/NIT-9004508634.xlsx
+++ b/Data/EC/NIT-9004508634.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC2213E2-40F2-4A2C-A45F-F325415892CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74922690-5E0D-499F-ADAF-2A4865826AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2AC048E-1047-4075-96E0-EBADA4DFF565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{335C9DDC-3802-498A-A84B-E9E16D3A5D0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>KAREN PATRICIA JIMENEZ CARRASCAL</t>
   </si>
   <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +200,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E9E6A6-8476-44D8-64EB-B64E6B9AA306}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C022B3-DF7D-D9C2-1CF6-29E9538C9AD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B417ADA-F036-443B-8662-798F0A6772AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C1394D-C5AF-4E27-9EFD-FBE243D0D04B}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28526</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="24">
-        <v>29509</v>
+        <v>28526</v>
       </c>
       <c r="G26" s="24">
         <v>737717</v>
